--- a/raw_data/20200818_saline/20200818_Sensor0_Test_13.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_13.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0612F4-F1D2-41C5-BE40-6F6323F70D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>10802.849555</v>
+        <v>10802.849555000001</v>
       </c>
       <c r="B2" s="1">
-        <v>3.000792</v>
+        <v>3.0007920000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>902.813000</v>
+        <v>902.81299999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.506000</v>
+        <v>-195.506</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>10813.862261</v>
@@ -496,28 +912,28 @@
         <v>3.003851</v>
       </c>
       <c r="H2" s="1">
-        <v>919.704000</v>
+        <v>919.70399999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.985000</v>
+        <v>-165.98500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>10824.284167</v>
       </c>
       <c r="L2" s="1">
-        <v>3.006746</v>
+        <v>3.0067460000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>941.811000</v>
+        <v>941.81100000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.537000</v>
+        <v>-118.53700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>10834.793899</v>
@@ -526,28 +942,28 @@
         <v>3.009665</v>
       </c>
       <c r="R2" s="1">
-        <v>948.263000</v>
+        <v>948.26300000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.335000</v>
+        <v>-103.33499999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>10845.347275</v>
       </c>
       <c r="V2" s="1">
-        <v>3.012596</v>
+        <v>3.0125959999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>954.583000</v>
+        <v>954.58299999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.628000</v>
+        <v>-89.628</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>10855.668061</v>
@@ -556,58 +972,58 @@
         <v>3.015463</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.686000</v>
+        <v>961.68600000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.268400</v>
+        <v>-80.2684</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>10866.882080</v>
+        <v>10866.882079999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.018578</v>
+        <v>3.0185780000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.587000</v>
+        <v>966.58699999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.861300</v>
+        <v>-79.8613</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>10877.319393</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.021478</v>
+        <v>3.0214780000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.577000</v>
+        <v>974.577</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.652900</v>
+        <v>-87.652900000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>10887.653571</v>
+        <v>10887.653571000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.024348</v>
+        <v>3.0243479999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.747000</v>
+        <v>983.74699999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.580000</v>
+        <v>-102.58</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>10898.615125</v>
@@ -616,150 +1032,150 @@
         <v>3.027393</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.097000</v>
+        <v>995.09699999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.132000</v>
+        <v>-124.13200000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>10909.397686</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.030388</v>
+        <v>3.0303879999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.903000</v>
+        <v>-142.90299999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>10920.387016</v>
+        <v>10920.387016000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.033441</v>
+        <v>3.0334409999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.790000</v>
+        <v>1049.79</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.830000</v>
+        <v>-227.83</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>10931.039098</v>
+        <v>10931.039097999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.036400</v>
+        <v>3.0364</v>
       </c>
       <c r="BK2" s="1">
-        <v>1128.820000</v>
+        <v>1128.82</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.536000</v>
+        <v>-364.536</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>10942.909851</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.039697</v>
+        <v>3.0396969999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.060000</v>
+        <v>1260.06</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.359000</v>
+        <v>-576.35900000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>10953.228126</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.042563</v>
+        <v>3.0425629999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.160000</v>
+        <v>1408.16</v>
       </c>
       <c r="BV2" s="1">
-        <v>-802.603000</v>
+        <v>-802.60299999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>10964.031982</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.045564</v>
+        <v>3.0455640000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1570.920000</v>
+        <v>1570.92</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1039.130000</v>
+        <v>-1039.1300000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>10974.930081</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.048592</v>
+        <v>3.0485920000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1982.760000</v>
+        <v>1982.76</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1591.340000</v>
+        <v>-1591.34</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>10803.561810</v>
+        <v>10803.561809999999</v>
       </c>
       <c r="B3" s="1">
-        <v>3.000989</v>
+        <v>3.0009890000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>902.727000</v>
+        <v>902.72699999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.625000</v>
+        <v>-195.625</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>10814.208932</v>
       </c>
       <c r="G3" s="1">
-        <v>3.003947</v>
+        <v>3.0039470000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.573000</v>
+        <v>919.57299999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.911000</v>
+        <v>-165.911</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>10824.670552</v>
@@ -768,390 +1184,390 @@
         <v>3.006853</v>
       </c>
       <c r="M3" s="1">
-        <v>941.764000</v>
+        <v>941.76400000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.714000</v>
+        <v>-118.714</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>10835.156474</v>
+        <v>10835.156473999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.009766</v>
+        <v>3.0097659999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.298000</v>
+        <v>948.298</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.328000</v>
+        <v>-103.328</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>10846.017372</v>
       </c>
       <c r="V3" s="1">
-        <v>3.012783</v>
+        <v>3.0127830000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>954.590000</v>
+        <v>954.59</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.670400</v>
+        <v>-89.670400000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>10856.346088</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.015652</v>
+        <v>3.0156520000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.714000</v>
+        <v>961.71400000000006</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.195400</v>
+        <v>-80.195400000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>10867.297726</v>
+        <v>10867.297726000001</v>
       </c>
       <c r="AF3" s="1">
         <v>3.018694</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.634000</v>
+        <v>966.63400000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.862200</v>
+        <v>-79.862200000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>10877.740040</v>
+        <v>10877.740040000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.021594</v>
+        <v>3.0215939999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.561000</v>
+        <v>974.56100000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.655500</v>
+        <v>-87.655500000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>10888.017107</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.024449</v>
+        <v>3.0244490000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.737000</v>
+        <v>983.73699999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.594000</v>
+        <v>-102.59399999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>10898.999067</v>
+        <v>10898.999067000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.027500</v>
+        <v>3.0274999999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.111000</v>
+        <v>995.11099999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.170000</v>
+        <v>-124.17</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>10909.757786</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.030488</v>
+        <v>3.0304880000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.897000</v>
+        <v>-142.89699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>10920.800680</v>
+        <v>10920.80068</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.033556</v>
+        <v>3.0335559999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.790000</v>
+        <v>1049.79</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.842000</v>
+        <v>-227.84200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>10931.450778</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.036514</v>
+        <v>3.0365139999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1128.830000</v>
+        <v>1128.83</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.517000</v>
+        <v>-364.517</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>10943.023968</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.039729</v>
+        <v>3.0397289999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.090000</v>
+        <v>1260.0899999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.422000</v>
+        <v>-576.42200000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>10953.371964</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.042603</v>
+        <v>3.0426030000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.390000</v>
+        <v>1408.39</v>
       </c>
       <c r="BV3" s="1">
-        <v>-802.641000</v>
+        <v>-802.64099999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>10964.517069</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.045699</v>
+        <v>3.0456989999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1570.900000</v>
+        <v>1570.9</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1039.250000</v>
+        <v>-1039.25</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>10975.523295</v>
+        <v>10975.523295000001</v>
       </c>
       <c r="CD3" s="1">
         <v>3.048756</v>
       </c>
       <c r="CE3" s="1">
-        <v>1984.710000</v>
+        <v>1984.71</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1590.440000</v>
+        <v>-1590.44</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>10803.905539</v>
+        <v>10803.905538999999</v>
       </c>
       <c r="B4" s="1">
-        <v>3.001085</v>
+        <v>3.0010849999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>902.755000</v>
+        <v>902.755</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.559000</v>
+        <v>-195.559</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>10814.555173</v>
+        <v>10814.555173000001</v>
       </c>
       <c r="G4" s="1">
-        <v>3.004043</v>
+        <v>3.0040429999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>919.638000</v>
+        <v>919.63800000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.313000</v>
+        <v>-165.31299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>10825.324773</v>
       </c>
       <c r="L4" s="1">
-        <v>3.007035</v>
+        <v>3.0070350000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>941.798000</v>
+        <v>941.798</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.866000</v>
+        <v>-118.866</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>10835.817640</v>
+        <v>10835.817639999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.009949</v>
+        <v>3.0099490000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>948.289000</v>
+        <v>948.28899999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.352000</v>
+        <v>-103.352</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>10846.398796</v>
+        <v>10846.398795999999</v>
       </c>
       <c r="V4" s="1">
-        <v>3.012889</v>
+        <v>3.0128889999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>954.639000</v>
+        <v>954.63900000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.707100</v>
+        <v>-89.707099999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>10856.737900</v>
+        <v>10856.7379</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.015761</v>
+        <v>3.0157609999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.712000</v>
+        <v>961.71199999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.294400</v>
+        <v>-80.294399999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>10867.638477</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.018788</v>
+        <v>3.0187879999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.591000</v>
+        <v>966.59100000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.859200</v>
+        <v>-79.859200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>10878.086704</v>
+        <v>10878.086703999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.021691</v>
+        <v>3.0216910000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.558000</v>
+        <v>974.55799999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.640100</v>
+        <v>-87.640100000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>10888.375746</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.024549</v>
+        <v>3.0245489999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.765000</v>
+        <v>983.76499999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.582000</v>
+        <v>-102.58199999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>10899.406243</v>
+        <v>10899.406242999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.027613</v>
+        <v>3.0276130000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.127000</v>
+        <v>995.12699999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.129000</v>
+        <v>-124.129</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>10910.165462</v>
+        <v>10910.165462000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>3.030602</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.899000</v>
+        <v>-142.899</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>10921.147417</v>
@@ -1160,28 +1576,28 @@
         <v>3.033652</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.800000</v>
+        <v>1049.8</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.847000</v>
+        <v>-227.84700000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>10931.803962</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.036612</v>
+        <v>3.0366119999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.840000</v>
+        <v>1128.8399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.569000</v>
+        <v>-364.56900000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>10943.428666</v>
@@ -1190,135 +1606,135 @@
         <v>3.039841</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.110000</v>
+        <v>1260.1099999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.409000</v>
+        <v>-576.40899999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>10953.850636</v>
+        <v>10953.850635999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.042736</v>
+        <v>3.0427360000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.410000</v>
+        <v>1408.41</v>
       </c>
       <c r="BV4" s="1">
-        <v>-802.923000</v>
+        <v>-802.923</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>10964.964959</v>
+        <v>10964.964959000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.045824</v>
+        <v>3.0458240000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1570.970000</v>
+        <v>1570.97</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1039.240000</v>
+        <v>-1039.24</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>10976.061988</v>
+        <v>10976.061987999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.048906</v>
+        <v>3.0489060000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1983.190000</v>
+        <v>1983.19</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1590.250000</v>
+        <v>-1590.25</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>10804.243314</v>
+        <v>10804.243313999999</v>
       </c>
       <c r="B5" s="1">
         <v>3.001179</v>
       </c>
       <c r="C5" s="1">
-        <v>902.736000</v>
+        <v>902.73599999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.582000</v>
+        <v>-195.58199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>10815.202947</v>
       </c>
       <c r="G5" s="1">
-        <v>3.004223</v>
+        <v>3.0042230000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>919.552000</v>
+        <v>919.55200000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.642000</v>
+        <v>-165.642</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>10825.706197</v>
       </c>
       <c r="L5" s="1">
-        <v>3.007141</v>
+        <v>3.0071409999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>942.004000</v>
+        <v>942.00400000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.696000</v>
+        <v>-118.696</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>10836.201543</v>
+        <v>10836.201542999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.010056</v>
+        <v>3.0100560000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>948.287000</v>
+        <v>948.28700000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.369000</v>
+        <v>-103.369</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>10846.742025</v>
       </c>
       <c r="V5" s="1">
-        <v>3.012984</v>
+        <v>3.0129839999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>954.621000</v>
+        <v>954.62099999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.677200</v>
+        <v>-89.677199999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>10857.085133</v>
@@ -1327,148 +1743,148 @@
         <v>3.015857</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.685000</v>
+        <v>961.68499999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.181100</v>
+        <v>-80.181100000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>10867.983695</v>
+        <v>10867.983695000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.018884</v>
+        <v>3.0188839999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.620000</v>
+        <v>966.62</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.861800</v>
+        <v>-79.861800000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>10878.436880</v>
+        <v>10878.436879999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.021788</v>
+        <v>3.0217879999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.539000</v>
+        <v>974.53899999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.668700</v>
+        <v>-87.668700000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>10888.784450</v>
+        <v>10888.784449999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.024662</v>
+        <v>3.0246620000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.717000</v>
+        <v>983.71699999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.592000</v>
+        <v>-102.592</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>10899.726659</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.027702</v>
+        <v>3.0277020000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.130000</v>
+        <v>995.13</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.151000</v>
+        <v>-124.151</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>10910.474966</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.030687</v>
+        <v>3.0306869999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.869000</v>
+        <v>-142.869</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>10921.507974</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.033752</v>
+        <v>3.0337519999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.790000</v>
+        <v>1049.79</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.844000</v>
+        <v>-227.84399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>10932.179928</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.036717</v>
+        <v>3.0367169999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1128.800000</v>
+        <v>1128.8</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.547000</v>
+        <v>-364.54700000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>10943.826120</v>
+        <v>10943.82612</v>
       </c>
       <c r="BO5" s="1">
         <v>3.039952</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.070000</v>
+        <v>1260.07</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.350000</v>
+        <v>-576.35</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>10954.220651</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.042839</v>
+        <v>3.0428389999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.360000</v>
+        <v>1408.36</v>
       </c>
       <c r="BV5" s="1">
-        <v>-803.291000</v>
+        <v>-803.29100000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>10965.387053</v>
@@ -1477,317 +1893,317 @@
         <v>3.045941</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.060000</v>
+        <v>1571.06</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1039.210000</v>
+        <v>-1039.21</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>10976.601598</v>
+        <v>10976.601597999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.049056</v>
+        <v>3.0490560000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1983.650000</v>
+        <v>1983.65</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1592.270000</v>
+        <v>-1592.27</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>10804.883184</v>
       </c>
       <c r="B6" s="1">
-        <v>3.001356</v>
+        <v>3.0013559999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>902.935000</v>
+        <v>902.93499999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.459000</v>
+        <v>-195.459</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>10815.587822</v>
       </c>
       <c r="G6" s="1">
-        <v>3.004330</v>
+        <v>3.0043299999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>919.820000</v>
+        <v>919.82</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.452000</v>
+        <v>-165.452</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>10826.053458</v>
       </c>
       <c r="L6" s="1">
-        <v>3.007237</v>
+        <v>3.0072369999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>941.712000</v>
+        <v>941.71199999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.638000</v>
+        <v>-118.63800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>10836.551223</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.010153</v>
+        <v>3.0101529999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>948.211000</v>
+        <v>948.21100000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.375000</v>
+        <v>-103.375</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>10847.091737</v>
+        <v>10847.091737000001</v>
       </c>
       <c r="V6" s="1">
-        <v>3.013081</v>
+        <v>3.0130810000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>954.606000</v>
+        <v>954.60599999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.644800</v>
+        <v>-89.644800000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>10857.435771</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.015954</v>
+        <v>3.0159539999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.700000</v>
+        <v>961.7</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.156800</v>
+        <v>-80.156800000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>10868.398845</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.019000</v>
+        <v>3.0190000000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.664000</v>
+        <v>966.66399999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.881800</v>
+        <v>-79.881799999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>10878.847071</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.021902</v>
+        <v>3.0219019999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.558000</v>
+        <v>974.55799999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.643600</v>
+        <v>-87.643600000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>10889.097515</v>
+        <v>10889.097514999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.024749</v>
+        <v>3.0247489999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.725000</v>
+        <v>983.72500000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.568000</v>
+        <v>-102.568</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>10900.093204</v>
+        <v>10900.093204000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.027804</v>
+        <v>3.0278040000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.142000</v>
+        <v>995.14200000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.120000</v>
+        <v>-124.12</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>10910.834070</v>
+        <v>10910.834070000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.030787</v>
+        <v>3.0307870000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.879000</v>
+        <v>-142.87899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>10921.871078</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.033853</v>
+        <v>3.0338530000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.760000</v>
+        <v>1049.76</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.819000</v>
+        <v>-227.81899999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>10932.563304</v>
+        <v>10932.563303999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.036823</v>
+        <v>3.0368230000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1128.810000</v>
+        <v>1128.81</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.556000</v>
+        <v>-364.55599999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>10944.246569</v>
+        <v>10944.246569000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.040068</v>
+        <v>3.0400680000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.070000</v>
+        <v>1260.07</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.364000</v>
+        <v>-576.36400000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>10955.077243</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.043077</v>
+        <v>3.0430769999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.130000</v>
+        <v>1408.13</v>
       </c>
       <c r="BV6" s="1">
-        <v>-803.376000</v>
+        <v>-803.37599999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>10965.804684</v>
+        <v>10965.804684000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.046057</v>
+        <v>3.0460569999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1570.990000</v>
+        <v>1570.99</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1039.280000</v>
+        <v>-1039.28</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>10977.142733</v>
+        <v>10977.142733000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.049206</v>
+        <v>3.0492059999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1984.040000</v>
+        <v>1984.04</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1590.020000</v>
+        <v>-1590.02</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>10805.263584</v>
       </c>
       <c r="B7" s="1">
-        <v>3.001462</v>
+        <v>3.0014620000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>902.882000</v>
+        <v>902.88199999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.539000</v>
+        <v>-195.53899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>10815.936535</v>
+        <v>10815.936535000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3.004427</v>
+        <v>3.0044270000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>919.698000</v>
+        <v>919.69799999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.979000</v>
+        <v>-165.97900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>10826.399604</v>
@@ -1796,193 +2212,193 @@
         <v>3.007333</v>
       </c>
       <c r="M7" s="1">
-        <v>941.671000</v>
+        <v>941.67100000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.571000</v>
+        <v>-118.571</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>10836.898455</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.010250</v>
+        <v>3.0102500000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>948.236000</v>
+        <v>948.23599999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.330000</v>
+        <v>-103.33</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>10847.492968</v>
       </c>
       <c r="V7" s="1">
-        <v>3.013192</v>
+        <v>3.0131920000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>954.555000</v>
+        <v>954.55499999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.657200</v>
+        <v>-89.657200000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>10857.846988</v>
+        <v>10857.846987999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.016069</v>
+        <v>3.0160689999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.819000</v>
+        <v>961.81899999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.236400</v>
+        <v>-80.236400000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>10868.675117</v>
+        <v>10868.675117000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.019076</v>
+        <v>3.0190760000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.634000</v>
+        <v>966.63400000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.849500</v>
+        <v>-79.849500000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>10879.132766</v>
+        <v>10879.132766000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.021981</v>
+        <v>3.0219809999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.561000</v>
+        <v>974.56100000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.646400</v>
+        <v>-87.6464</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>10889.456539</v>
+        <v>10889.456539000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.024849</v>
+        <v>3.0248490000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.740000</v>
+        <v>983.74</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.594000</v>
+        <v>-102.59399999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>10900.458755</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.027905</v>
+        <v>3.0279050000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.129000</v>
+        <v>995.12900000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.128000</v>
+        <v>-124.128</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>10911.194692</v>
+        <v>10911.194691999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.030887</v>
+        <v>3.0308869999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.884000</v>
+        <v>-142.88399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>10922.594737</v>
+        <v>10922.594736999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.034054</v>
+        <v>3.0340539999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.790000</v>
+        <v>1049.79</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.852000</v>
+        <v>-227.852</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>10933.317223</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.037033</v>
+        <v>3.0370330000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1128.820000</v>
+        <v>1128.82</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.505000</v>
+        <v>-364.505</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>10944.643865</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.040179</v>
+        <v>3.0401790000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.100000</v>
+        <v>1260.0999999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.399000</v>
+        <v>-576.399</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>10955.482473</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.043190</v>
+        <v>3.0431900000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1407.840000</v>
+        <v>1407.84</v>
       </c>
       <c r="BV7" s="1">
-        <v>-803.432000</v>
+        <v>-803.43200000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>10966.233724</v>
@@ -1991,75 +2407,75 @@
         <v>3.046176</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1570.860000</v>
+        <v>1570.86</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1039.320000</v>
+        <v>-1039.32</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>10977.973039</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.049437</v>
+        <v>3.0494370000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>1984.360000</v>
+        <v>1984.36</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1591.860000</v>
+        <v>-1591.86</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>10805.610784</v>
       </c>
       <c r="B8" s="1">
-        <v>3.001559</v>
+        <v>3.0015589999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>902.752000</v>
+        <v>902.75199999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.613000</v>
+        <v>-195.613</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>10816.279267</v>
       </c>
       <c r="G8" s="1">
-        <v>3.004522</v>
+        <v>3.0045220000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>919.622000</v>
+        <v>919.62199999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.452000</v>
+        <v>-165.452</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>10826.818724</v>
+        <v>10826.818724000001</v>
       </c>
       <c r="L8" s="1">
-        <v>3.007450</v>
+        <v>3.00745</v>
       </c>
       <c r="M8" s="1">
-        <v>941.861000</v>
+        <v>941.86099999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.664000</v>
+        <v>-118.664</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>10837.310136</v>
@@ -2068,88 +2484,88 @@
         <v>3.010364</v>
       </c>
       <c r="R8" s="1">
-        <v>948.285000</v>
+        <v>948.28499999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.343000</v>
+        <v>-103.343</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>10847.781640</v>
+        <v>10847.781639999999</v>
       </c>
       <c r="V8" s="1">
-        <v>3.013273</v>
+        <v>3.0132729999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>954.563000</v>
+        <v>954.56299999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.608400</v>
+        <v>-89.608400000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>10858.145082</v>
+        <v>10858.145081999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.016151</v>
+        <v>3.0161509999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.738000</v>
+        <v>961.73800000000006</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.257100</v>
+        <v>-80.257099999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>10869.019873</v>
+        <v>10869.019872999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.019172</v>
+        <v>3.0191720000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.617000</v>
+        <v>966.61699999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.887200</v>
+        <v>-79.887200000000007</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>10879.500830</v>
+        <v>10879.500830000001</v>
       </c>
       <c r="AK8" s="1">
         <v>3.022084</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.536000</v>
+        <v>974.53599999999994</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.655700</v>
+        <v>-87.655699999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>10889.816096</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.024949</v>
+        <v>3.0249489999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.733000</v>
+        <v>983.73299999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.581000</v>
+        <v>-102.581</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>10901.187377</v>
@@ -2158,28 +2574,28 @@
         <v>3.028108</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.108000</v>
+        <v>995.10799999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.143000</v>
+        <v>-124.143</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>10911.918819</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.031089</v>
+        <v>3.0310890000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.690000</v>
+        <v>1004.69</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.874000</v>
+        <v>-142.874</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>10922.953813</v>
@@ -2188,73 +2604,73 @@
         <v>3.034154</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.800000</v>
+        <v>1049.8</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.855000</v>
+        <v>-227.85499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>10933.702615</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.037140</v>
+        <v>3.03714</v>
       </c>
       <c r="BK8" s="1">
-        <v>1128.800000</v>
+        <v>1128.8</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.559000</v>
+        <v>-364.55900000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>10945.066456</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.040296</v>
+        <v>3.0402960000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.060000</v>
+        <v>1260.06</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.425000</v>
+        <v>-576.42499999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>10956.217513</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.043394</v>
+        <v>3.0433940000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1407.790000</v>
+        <v>1407.79</v>
       </c>
       <c r="BV8" s="1">
-        <v>-803.238000</v>
+        <v>-803.23800000000006</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>10966.954938</v>
+        <v>10966.954938000001</v>
       </c>
       <c r="BY8" s="1">
         <v>3.046376</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1570.960000</v>
+        <v>1570.96</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1039.400000</v>
+        <v>-1039.4000000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>10978.222028</v>
@@ -2263,90 +2679,90 @@
         <v>3.049506</v>
       </c>
       <c r="CE8" s="1">
-        <v>1983.990000</v>
+        <v>1983.99</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1591.430000</v>
+        <v>-1591.43</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>10805.952033</v>
       </c>
       <c r="B9" s="1">
-        <v>3.001653</v>
+        <v>3.0016530000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>902.817000</v>
+        <v>902.81700000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.502000</v>
+        <v>-195.50200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>10816.689425</v>
       </c>
       <c r="G9" s="1">
-        <v>3.004636</v>
+        <v>3.0046360000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>919.664000</v>
+        <v>919.66399999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.577000</v>
+        <v>-165.577</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>10827.093542</v>
+        <v>10827.093542000001</v>
       </c>
       <c r="L9" s="1">
-        <v>3.007526</v>
+        <v>3.0075259999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>941.844000</v>
+        <v>941.84400000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.412000</v>
+        <v>-118.41200000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>10837.600760</v>
+        <v>10837.600759999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.010445</v>
+        <v>3.0104449999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>948.302000</v>
+        <v>948.30200000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.336000</v>
+        <v>-103.336</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>10848.137273</v>
       </c>
       <c r="V9" s="1">
-        <v>3.013371</v>
+        <v>3.0133709999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>954.623000</v>
+        <v>954.62300000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.666900</v>
+        <v>-89.666899999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>10858.492251</v>
@@ -2355,133 +2771,133 @@
         <v>3.016248</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.684000</v>
+        <v>961.68399999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.216200</v>
+        <v>-80.216200000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>10869.364091</v>
+        <v>10869.364090999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.019268</v>
+        <v>3.0192679999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.610000</v>
+        <v>966.61</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.865400</v>
+        <v>-79.865399999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>10880.170931</v>
+        <v>10880.170931000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.022270</v>
+        <v>3.0222699999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.540000</v>
+        <v>974.54</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.668900</v>
+        <v>-87.668899999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>10890.545711</v>
+        <v>10890.545711000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.025152</v>
+        <v>3.0251519999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.727000</v>
+        <v>983.72699999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.580000</v>
+        <v>-102.58</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>10901.570322</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.028214</v>
+        <v>3.0282140000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.126000</v>
+        <v>995.12599999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.112000</v>
+        <v>-124.11199999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>10912.295534</v>
+        <v>10912.295534000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>3.031193</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.874000</v>
+        <v>-142.874</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>10923.317876</v>
+        <v>10923.317875999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.034255</v>
+        <v>3.0342549999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.780000</v>
+        <v>1049.78</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.815000</v>
+        <v>-227.815</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>10934.079611</v>
+        <v>10934.079610999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.037244</v>
+        <v>3.0372439999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1128.840000</v>
+        <v>1128.8399999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.562000</v>
+        <v>-364.56200000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>10945.758378</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.040488</v>
+        <v>3.0404879999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.396000</v>
+        <v>-576.39599999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>10956.352953</v>
@@ -2490,75 +2906,75 @@
         <v>3.043431</v>
       </c>
       <c r="BU9" s="1">
-        <v>1407.690000</v>
+        <v>1407.69</v>
       </c>
       <c r="BV9" s="1">
-        <v>-803.032000</v>
+        <v>-803.03200000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>10967.096794</v>
+        <v>10967.096793999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.046416</v>
+        <v>3.0464159999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.000000</v>
+        <v>1571</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1039.250000</v>
+        <v>-1039.25</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>10978.738859</v>
+        <v>10978.738858999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.049650</v>
+        <v>3.0496500000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1984.820000</v>
+        <v>1984.82</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1590.050000</v>
+        <v>-1590.05</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>10806.633573</v>
+        <v>10806.633572999999</v>
       </c>
       <c r="B10" s="1">
         <v>3.001843</v>
       </c>
       <c r="C10" s="1">
-        <v>902.718000</v>
+        <v>902.71799999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.467000</v>
+        <v>-195.46700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>10816.970170</v>
+        <v>10816.970170000001</v>
       </c>
       <c r="G10" s="1">
-        <v>3.004714</v>
+        <v>3.0047139999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>919.556000</v>
+        <v>919.55600000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.940000</v>
+        <v>-165.94</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>10827.438259</v>
@@ -2567,43 +2983,43 @@
         <v>3.007622</v>
       </c>
       <c r="M10" s="1">
-        <v>941.987000</v>
+        <v>941.98699999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.690000</v>
+        <v>-118.69</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>10837.949941</v>
+        <v>10837.949941000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.010542</v>
+        <v>3.0105420000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>948.283000</v>
+        <v>948.28300000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.370000</v>
+        <v>-103.37</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>10848.482024</v>
+        <v>10848.482024000001</v>
       </c>
       <c r="V10" s="1">
-        <v>3.013467</v>
+        <v>3.0134669999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>954.582000</v>
+        <v>954.58199999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.644600</v>
+        <v>-89.644599999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>10858.845899</v>
@@ -2612,181 +3028,181 @@
         <v>3.016346</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.634000</v>
+        <v>961.63400000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.267200</v>
+        <v>-80.267200000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>10870.051018</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.019459</v>
+        <v>3.0194589999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.610000</v>
+        <v>966.61</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.850500</v>
+        <v>-79.850499999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>10880.537436</v>
+        <v>10880.537436000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.022372</v>
+        <v>3.0223719999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.557000</v>
+        <v>974.55700000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.630600</v>
+        <v>-87.630600000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>10890.922671</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.025256</v>
+        <v>3.0252560000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.738000</v>
+        <v>983.73800000000006</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.585000</v>
+        <v>-102.58499999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>10901.936832</v>
+        <v>10901.936831999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.028316</v>
+        <v>3.0283159999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.137000</v>
+        <v>995.13699999999994</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.127000</v>
+        <v>-124.127</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>10912.675251</v>
+        <v>10912.675251000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.031299</v>
+        <v>3.0312990000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.866000</v>
+        <v>-142.86600000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>10923.983507</v>
+        <v>10923.983507000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.034440</v>
+        <v>3.03444</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.790000</v>
+        <v>1049.79</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.848000</v>
+        <v>-227.84800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>10934.774010</v>
+        <v>10934.774009999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.037437</v>
+        <v>3.0374370000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1128.830000</v>
+        <v>1128.83</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.547000</v>
+        <v>-364.54700000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>10945.882374</v>
+        <v>10945.882374000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.040523</v>
+        <v>3.0405229999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.050000</v>
+        <v>1260.05</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.439000</v>
+        <v>-576.43899999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>10956.768600</v>
+        <v>10956.768599999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.043547</v>
+        <v>3.0435469999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1407.700000</v>
+        <v>1407.7</v>
       </c>
       <c r="BV10" s="1">
-        <v>-802.790000</v>
+        <v>-802.79</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>10967.517403</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.046533</v>
+        <v>3.0465330000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1570.900000</v>
+        <v>1570.9</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1039.290000</v>
+        <v>-1039.29</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>10979.258170</v>
+        <v>10979.258169999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.049794</v>
+        <v>3.0497939999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1983.010000</v>
+        <v>1983.01</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1590.080000</v>
+        <v>-1590.08</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>10806.975278</v>
       </c>
@@ -2794,178 +3210,178 @@
         <v>3.001938</v>
       </c>
       <c r="C11" s="1">
-        <v>902.565000</v>
+        <v>902.56500000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.481000</v>
+        <v>-195.48099999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>10817.313888</v>
+        <v>10817.313888000001</v>
       </c>
       <c r="G11" s="1">
-        <v>3.004809</v>
+        <v>3.0048089999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>919.726000</v>
+        <v>919.726</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.686000</v>
+        <v>-165.68600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>10827.784436</v>
       </c>
       <c r="L11" s="1">
-        <v>3.007718</v>
+        <v>3.0077180000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>941.740000</v>
+        <v>941.74</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.605000</v>
+        <v>-118.605</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>10838.298660</v>
+        <v>10838.29866</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.010639</v>
+        <v>3.0106389999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>948.237000</v>
+        <v>948.23699999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.407000</v>
+        <v>-103.407</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>10849.167959</v>
       </c>
       <c r="V11" s="1">
-        <v>3.013658</v>
+        <v>3.0136579999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>954.628000</v>
+        <v>954.62800000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.685600</v>
+        <v>-89.685599999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>10859.538350</v>
+        <v>10859.538350000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.016538</v>
+        <v>3.0165380000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.675000</v>
+        <v>961.67499999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.139600</v>
+        <v>-80.139600000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>10870.392762</v>
+        <v>10870.392761999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.019554</v>
+        <v>3.0195539999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.619000</v>
+        <v>966.61900000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.838000</v>
+        <v>-79.837999999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>10880.882652</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.022467</v>
+        <v>3.0224669999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.543000</v>
+        <v>974.54300000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.600900</v>
+        <v>-87.600899999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>10891.283295</v>
+        <v>10891.283294999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.025356</v>
+        <v>3.0253559999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.711000</v>
+        <v>983.71100000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.588000</v>
+        <v>-102.58799999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>10902.613128</v>
+        <v>10902.613128000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.028504</v>
+        <v>3.0285039999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.119000</v>
+        <v>995.11900000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.133000</v>
+        <v>-124.133</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>10913.331459</v>
+        <v>10913.331459000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.031481</v>
+        <v>3.0314809999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.885000</v>
+        <v>-142.88499999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>10924.428420</v>
+        <v>10924.42842</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.034563</v>
+        <v>3.0345629999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.770000</v>
+        <v>1049.77</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.819000</v>
+        <v>-227.81899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>10935.228308</v>
@@ -2974,76 +3390,76 @@
         <v>3.037563</v>
       </c>
       <c r="BK11" s="1">
-        <v>1128.840000</v>
+        <v>1128.8399999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.501000</v>
+        <v>-364.50099999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>10946.305462</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.040640</v>
+        <v>3.0406399999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.110000</v>
+        <v>1260.1099999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.395000</v>
+        <v>-576.39499999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>10957.195656</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.043665</v>
+        <v>3.0436649999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1407.840000</v>
+        <v>1407.84</v>
       </c>
       <c r="BV11" s="1">
-        <v>-802.700000</v>
+        <v>-802.7</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>10967.943929</v>
+        <v>10967.943928999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.046651</v>
+        <v>3.0466510000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1570.910000</v>
+        <v>1570.91</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1039.440000</v>
+        <v>-1039.44</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>10979.774506</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.049937</v>
+        <v>3.0499369999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1982.430000</v>
+        <v>1982.43</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1591.250000</v>
+        <v>-1591.25</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>10807.318014</v>
       </c>
@@ -3051,58 +3467,58 @@
         <v>3.002033</v>
       </c>
       <c r="C12" s="1">
-        <v>902.956000</v>
+        <v>902.95600000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.499000</v>
+        <v>-195.499</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>10817.660593</v>
+        <v>10817.660593000001</v>
       </c>
       <c r="G12" s="1">
-        <v>3.004906</v>
+        <v>3.0049060000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>919.796000</v>
+        <v>919.79600000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.643000</v>
+        <v>-165.643</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>10828.476387</v>
+        <v>10828.476387000001</v>
       </c>
       <c r="L12" s="1">
-        <v>3.007910</v>
+        <v>3.0079099999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>942.011000</v>
+        <v>942.01099999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.615000</v>
+        <v>-118.61499999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>10838.995539</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.010832</v>
+        <v>3.0108320000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>948.234000</v>
+        <v>948.23400000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.328000</v>
+        <v>-103.328</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>10849.513174</v>
@@ -3111,73 +3527,73 @@
         <v>3.013754</v>
       </c>
       <c r="W12" s="1">
-        <v>954.558000</v>
+        <v>954.55799999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.695300</v>
+        <v>-89.695300000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>10859.888520</v>
+        <v>10859.88852</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.016636</v>
+        <v>3.0166360000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.696000</v>
+        <v>961.69600000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.280900</v>
+        <v>-80.280900000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>10870.736517</v>
+        <v>10870.736516999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.019649</v>
+        <v>3.0196489999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.644000</v>
+        <v>966.64400000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.872800</v>
+        <v>-79.872799999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>10881.536380</v>
+        <v>10881.53638</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.022649</v>
+        <v>3.0226489999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.548000</v>
+        <v>974.548</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.618000</v>
+        <v>-87.617999999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>10891.950419</v>
+        <v>10891.950419000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.025542</v>
+        <v>3.0255420000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.745000</v>
+        <v>983.745</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.588000</v>
+        <v>-102.58799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>10903.064736</v>
@@ -3186,135 +3602,135 @@
         <v>3.028629</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.115000</v>
+        <v>995.11500000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.146000</v>
+        <v>-124.146</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>10913.758977</v>
       </c>
       <c r="AZ12" s="1">
-        <v>3.031600</v>
+        <v>3.0316000000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.871000</v>
+        <v>-142.87100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>10924.792979</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.034665</v>
+        <v>3.0346649999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.780000</v>
+        <v>1049.78</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.825000</v>
+        <v>-227.82499999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>10935.843843</v>
+        <v>10935.843843000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.037734</v>
+        <v>3.0377339999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.810000</v>
+        <v>1128.81</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.522000</v>
+        <v>-364.52199999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>10946.704246</v>
+        <v>10946.704245999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.040751</v>
+        <v>3.0407510000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.070000</v>
+        <v>1260.07</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.401000</v>
+        <v>-576.40099999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>10957.609783</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.043780</v>
+        <v>3.0437799999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1407.960000</v>
+        <v>1407.96</v>
       </c>
       <c r="BV12" s="1">
-        <v>-802.577000</v>
+        <v>-802.577</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>10968.365529</v>
+        <v>10968.365529000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.046768</v>
+        <v>3.0467680000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1570.870000</v>
+        <v>1570.87</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1039.360000</v>
+        <v>-1039.3599999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>10980.294313</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.050082</v>
+        <v>3.0500820000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1982.490000</v>
+        <v>1982.49</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1590.780000</v>
+        <v>-1590.78</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>10808.000045</v>
+        <v>10808.000045000001</v>
       </c>
       <c r="B13" s="1">
-        <v>3.002222</v>
+        <v>3.0022220000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>902.932000</v>
+        <v>902.93200000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.650000</v>
+        <v>-195.65</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>10818.346072</v>
@@ -3323,13 +3739,13 @@
         <v>3.005096</v>
       </c>
       <c r="H13" s="1">
-        <v>919.453000</v>
+        <v>919.45299999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.988000</v>
+        <v>-165.988</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>10828.820613</v>
@@ -3338,226 +3754,226 @@
         <v>3.008006</v>
       </c>
       <c r="M13" s="1">
-        <v>941.880000</v>
+        <v>941.88</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.672000</v>
+        <v>-118.672</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>10839.343699</v>
+        <v>10839.343698999999</v>
       </c>
       <c r="Q13" s="1">
         <v>3.010929</v>
       </c>
       <c r="R13" s="1">
-        <v>948.267000</v>
+        <v>948.26700000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.338000</v>
+        <v>-103.33799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>10849.856938</v>
+        <v>10849.856938000001</v>
       </c>
       <c r="V13" s="1">
         <v>3.013849</v>
       </c>
       <c r="W13" s="1">
-        <v>954.642000</v>
+        <v>954.64200000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.656900</v>
+        <v>-89.656899999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>10860.237175</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.016733</v>
+        <v>3.0167329999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.776000</v>
+        <v>961.77599999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.285700</v>
+        <v>-80.285700000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>10871.381289</v>
+        <v>10871.381289000001</v>
       </c>
       <c r="AF13" s="1">
         <v>3.019828</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.600000</v>
+        <v>966.6</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.858100</v>
+        <v>-79.858099999999993</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>10881.929243</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.022758</v>
+        <v>3.0227580000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.551000</v>
+        <v>974.55100000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.623700</v>
+        <v>-87.623699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>10892.364046</v>
+        <v>10892.364046000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.025657</v>
+        <v>3.0256569999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.692000</v>
+        <v>983.69200000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.599000</v>
+        <v>-102.599</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>10903.428799</v>
+        <v>10903.428798999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.028730</v>
+        <v>3.0287299999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.121000</v>
+        <v>995.12099999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.127000</v>
+        <v>-124.127</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>10914.132465</v>
+        <v>10914.132465000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.031703</v>
+        <v>3.0317029999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.863000</v>
+        <v>-142.863</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>10925.153570</v>
+        <v>10925.15357</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.034765</v>
+        <v>3.0347650000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.770000</v>
+        <v>1049.77</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.842000</v>
+        <v>-227.84200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>10936.007530</v>
+        <v>10936.007530000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.037780</v>
+        <v>3.0377800000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1128.770000</v>
+        <v>1128.77</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.520000</v>
+        <v>-364.52</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>10947.125350</v>
+        <v>10947.12535</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.040868</v>
+        <v>3.0408680000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.070000</v>
+        <v>1260.07</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.409000</v>
+        <v>-576.40899999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>10958.024438</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.043896</v>
+        <v>3.0438960000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.210000</v>
+        <v>1408.21</v>
       </c>
       <c r="BV13" s="1">
-        <v>-802.654000</v>
+        <v>-802.654</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>10968.809972</v>
+        <v>10968.809971999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.046892</v>
+        <v>3.0468920000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1570.940000</v>
+        <v>1570.94</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1039.320000</v>
+        <v>-1039.32</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>10980.846856</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.050235</v>
+        <v>3.0502349999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1983.290000</v>
+        <v>1983.29</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1590.110000</v>
+        <v>-1590.11</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>10808.349692</v>
       </c>
@@ -3565,73 +3981,73 @@
         <v>3.002319</v>
       </c>
       <c r="C14" s="1">
-        <v>902.904000</v>
+        <v>902.904</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.622000</v>
+        <v>-195.62200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>10818.692767</v>
       </c>
       <c r="G14" s="1">
-        <v>3.005192</v>
+        <v>3.0051920000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>919.603000</v>
+        <v>919.60299999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.160000</v>
+        <v>-166.16</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>10829.169520</v>
+        <v>10829.169519999999</v>
       </c>
       <c r="L14" s="1">
-        <v>3.008103</v>
+        <v>3.0081030000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>941.923000</v>
+        <v>941.923</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.484000</v>
+        <v>-118.48399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>10839.694867</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.011026</v>
+        <v>3.0110260000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>948.268000</v>
+        <v>948.26800000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.352000</v>
+        <v>-103.352</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>10850.503685</v>
       </c>
       <c r="V14" s="1">
-        <v>3.014029</v>
+        <v>3.0140289999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>954.578000</v>
+        <v>954.57799999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.651000</v>
+        <v>-89.650999999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>10860.892925</v>
@@ -3640,13 +4056,13 @@
         <v>3.016915</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.736000</v>
+        <v>961.73599999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.244800</v>
+        <v>-80.244799999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>10871.768697</v>
@@ -3655,28 +4071,28 @@
         <v>3.019936</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.586000</v>
+        <v>966.58600000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.897000</v>
+        <v>-79.897000000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>10882.278891</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.022855</v>
+        <v>3.0228549999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.523000</v>
+        <v>974.52300000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.631400</v>
+        <v>-87.631399999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>10892.747452</v>
@@ -3685,210 +4101,210 @@
         <v>3.025763</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.740000</v>
+        <v>983.74</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.572000</v>
+        <v>-102.572</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>10903.793886</v>
+        <v>10903.793885999999</v>
       </c>
       <c r="AU14" s="1">
         <v>3.028832</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.109000</v>
+        <v>995.10900000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.140000</v>
+        <v>-124.14</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>10914.514880</v>
+        <v>10914.514880000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.031810</v>
+        <v>3.0318100000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.888000</v>
+        <v>-142.88800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>10925.576659</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.034882</v>
+        <v>3.0348820000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.780000</v>
+        <v>1049.78</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.826000</v>
+        <v>-227.82599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>10936.784258</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.037996</v>
+        <v>3.0379960000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.810000</v>
+        <v>1128.81</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.566000</v>
+        <v>-364.56599999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>10947.523140</v>
+        <v>10947.523139999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.040979</v>
+        <v>3.0409790000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.070000</v>
+        <v>1260.07</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.431000</v>
+        <v>-576.43100000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>10958.441574</v>
       </c>
       <c r="BT14" s="1">
-        <v>3.044012</v>
+        <v>3.0440119999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.290000</v>
+        <v>1408.29</v>
       </c>
       <c r="BV14" s="1">
-        <v>-802.712000</v>
+        <v>-802.71199999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>10969.226615</v>
       </c>
       <c r="BY14" s="1">
-        <v>3.047007</v>
+        <v>3.0470069999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.080000</v>
+        <v>1571.08</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1039.220000</v>
+        <v>-1039.22</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>10981.376584</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.050382</v>
+        <v>3.0503819999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1982.650000</v>
+        <v>1982.65</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1591.660000</v>
+        <v>-1591.66</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>10808.691435</v>
+        <v>10808.691435000001</v>
       </c>
       <c r="B15" s="1">
-        <v>3.002414</v>
+        <v>3.0024139999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>902.884000</v>
+        <v>902.88400000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.661000</v>
+        <v>-195.661</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>10819.037124</v>
       </c>
       <c r="G15" s="1">
-        <v>3.005288</v>
+        <v>3.0052880000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>919.875000</v>
+        <v>919.875</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.812000</v>
+        <v>-165.81200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>10829.815056</v>
+        <v>10829.815055999999</v>
       </c>
       <c r="L15" s="1">
-        <v>3.008282</v>
+        <v>3.0082819999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>941.890000</v>
+        <v>941.89</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.615000</v>
+        <v>-118.61499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>10840.358546</v>
+        <v>10840.358545999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.011211</v>
+        <v>3.0112109999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>948.295000</v>
+        <v>948.29499999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.362000</v>
+        <v>-103.36199999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>10850.883620</v>
+        <v>10850.883620000001</v>
       </c>
       <c r="V15" s="1">
-        <v>3.014134</v>
+        <v>3.0141339999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>954.594000</v>
+        <v>954.59400000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.624300</v>
+        <v>-89.624300000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>10861.284232</v>
@@ -3897,210 +4313,210 @@
         <v>3.017023</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.750000</v>
+        <v>961.75</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.249600</v>
+        <v>-80.249600000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>10872.110408</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.020031</v>
+        <v>3.0200309999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.571000</v>
+        <v>966.57100000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.864500</v>
+        <v>-79.864500000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>10882.627082</v>
+        <v>10882.627082000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.022952</v>
+        <v>3.0229520000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.546000</v>
+        <v>974.54600000000005</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.613300</v>
+        <v>-87.613299999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>10893.108044</v>
+        <v>10893.108044000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.025863</v>
+        <v>3.0258630000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.719000</v>
+        <v>983.71900000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.574000</v>
+        <v>-102.574</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>10904.215950</v>
+        <v>10904.21595</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.028949</v>
+        <v>3.0289489999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.135000</v>
+        <v>995.13499999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.114000</v>
+        <v>-124.114</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>10914.933503</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.031926</v>
+        <v>3.0319259999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.740000</v>
+        <v>1004.74</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.902000</v>
+        <v>-142.90199999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>10925.876737</v>
+        <v>10925.876737000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.034966</v>
+        <v>3.0349659999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.760000</v>
+        <v>1049.76</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.824000</v>
+        <v>-227.82400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>10937.158769</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.038100</v>
+        <v>3.0381</v>
       </c>
       <c r="BK15" s="1">
-        <v>1128.820000</v>
+        <v>1128.82</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.525000</v>
+        <v>-364.52499999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>10947.943284</v>
+        <v>10947.943284000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.041095</v>
+        <v>3.0410949999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.080000</v>
+        <v>1260.08</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.424000</v>
+        <v>-576.42399999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>10958.851296</v>
+        <v>10958.851296000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.044125</v>
+        <v>3.0441250000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.350000</v>
+        <v>1408.35</v>
       </c>
       <c r="BV15" s="1">
-        <v>-802.923000</v>
+        <v>-802.923</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>10969.653640</v>
+        <v>10969.65364</v>
       </c>
       <c r="BY15" s="1">
         <v>3.047126</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.020000</v>
+        <v>1571.02</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1039.260000</v>
+        <v>-1039.26</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>10981.893943</v>
+        <v>10981.893942999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.050526</v>
+        <v>3.0505260000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1984.020000</v>
+        <v>1984.02</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1591.740000</v>
+        <v>-1591.74</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>10809.331276</v>
+        <v>10809.331276000001</v>
       </c>
       <c r="B16" s="1">
-        <v>3.002592</v>
+        <v>3.0025919999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>902.938000</v>
+        <v>902.93799999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.522000</v>
+        <v>-195.52199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>10819.681294</v>
       </c>
       <c r="G16" s="1">
-        <v>3.005467</v>
+        <v>3.0054669999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>919.802000</v>
+        <v>919.80200000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.827000</v>
+        <v>-165.827</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>10830.207391</v>
@@ -4109,58 +4525,58 @@
         <v>3.008391</v>
       </c>
       <c r="M16" s="1">
-        <v>941.965000</v>
+        <v>941.96500000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.528000</v>
+        <v>-118.52800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>10840.738945</v>
+        <v>10840.738944999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.011316</v>
+        <v>3.0113159999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>948.269000</v>
+        <v>948.26900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.361000</v>
+        <v>-103.361</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>10851.227379</v>
       </c>
       <c r="V16" s="1">
-        <v>3.014230</v>
+        <v>3.01423</v>
       </c>
       <c r="W16" s="1">
-        <v>954.686000</v>
+        <v>954.68600000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.631700</v>
+        <v>-89.631699999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>10861.630934</v>
+        <v>10861.630934000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.017120</v>
+        <v>3.0171199999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.710000</v>
+        <v>961.71</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.192000</v>
+        <v>-80.191999999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>10872.455623</v>
@@ -4169,73 +4585,73 @@
         <v>3.020127</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.606000</v>
+        <v>966.60599999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.866500</v>
+        <v>-79.866500000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>10883.053177</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.023070</v>
+        <v>3.0230700000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.541000</v>
+        <v>974.54100000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.632200</v>
+        <v>-87.632199999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>10893.523692</v>
+        <v>10893.523692000001</v>
       </c>
       <c r="AP16" s="1">
         <v>3.025979</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.722000</v>
+        <v>983.72199999999998</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.586000</v>
+        <v>-102.586</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>10904.521981</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.029034</v>
+        <v>3.0290339999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.136000</v>
+        <v>995.13599999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.143000</v>
+        <v>-124.143</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>10915.228787</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.032008</v>
+        <v>3.0320079999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.750000</v>
+        <v>1004.75</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.859000</v>
+        <v>-142.85900000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>10926.238352</v>
@@ -4244,43 +4660,43 @@
         <v>3.035066</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.780000</v>
+        <v>1049.78</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.822000</v>
+        <v>-227.822</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>10937.532753</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.038204</v>
+        <v>3.0382039999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1128.800000</v>
+        <v>1128.8</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.554000</v>
+        <v>-364.55399999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>10948.342290</v>
+        <v>10948.342290000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.041206</v>
+        <v>3.0412059999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.060000</v>
+        <v>1260.06</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.418000</v>
+        <v>-576.41800000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>10959.269397</v>
@@ -4289,195 +4705,195 @@
         <v>3.044241</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.430000</v>
+        <v>1408.43</v>
       </c>
       <c r="BV16" s="1">
-        <v>-803.171000</v>
+        <v>-803.17100000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>10970.101030</v>
+        <v>10970.10103</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.047250</v>
+        <v>3.04725</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1570.960000</v>
+        <v>1570.96</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1039.440000</v>
+        <v>-1039.44</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>10982.411271</v>
+        <v>10982.411271000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.050670</v>
+        <v>3.0506700000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1984.860000</v>
+        <v>1984.86</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1590.220000</v>
+        <v>-1590.22</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>10809.712699</v>
       </c>
       <c r="B17" s="1">
-        <v>3.002698</v>
+        <v>3.0026980000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>902.886000</v>
+        <v>902.88599999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.554000</v>
+        <v>-195.554</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>10820.070503</v>
+        <v>10820.070503000001</v>
       </c>
       <c r="G17" s="1">
-        <v>3.005575</v>
+        <v>3.0055749999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.812000</v>
+        <v>919.81200000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.920000</v>
+        <v>-165.92</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>10830.552682</v>
       </c>
       <c r="L17" s="1">
-        <v>3.008487</v>
+        <v>3.0084870000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>941.835000</v>
+        <v>941.83500000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.591000</v>
+        <v>-118.59099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>10841.085334</v>
+        <v>10841.085333999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.011413</v>
+        <v>3.0114130000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>948.219000</v>
+        <v>948.21900000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.351000</v>
+        <v>-103.351</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>10851.570611</v>
+        <v>10851.570610999999</v>
       </c>
       <c r="V17" s="1">
-        <v>3.014325</v>
+        <v>3.0143249999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>954.617000</v>
+        <v>954.61699999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.663500</v>
+        <v>-89.663499999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>10861.980155</v>
+        <v>10861.980154999999</v>
       </c>
       <c r="AA17" s="1">
         <v>3.017217</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.716000</v>
+        <v>961.71600000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.197600</v>
+        <v>-80.197599999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>10872.877223</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.020244</v>
+        <v>3.0202439999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.630000</v>
+        <v>966.63</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.834300</v>
+        <v>-79.834299999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>10883.340858</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.023150</v>
+        <v>3.0231499999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.554000</v>
+        <v>974.55399999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.591000</v>
+        <v>-87.590999999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>10893.827739</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.026063</v>
+        <v>3.0260630000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.745000</v>
+        <v>983.745</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.593000</v>
+        <v>-102.593</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>10904.889516</v>
+        <v>10904.889515999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.029136</v>
+        <v>3.0291359999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.105000</v>
+        <v>995.10500000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.101000</v>
+        <v>-124.101</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>10915.587232</v>
@@ -4486,120 +4902,120 @@
         <v>3.032108</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.845000</v>
+        <v>-142.845</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>10926.597425</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.035166</v>
+        <v>3.0351659999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.800000</v>
+        <v>1049.8</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.837000</v>
+        <v>-227.83699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>10938.304002</v>
+        <v>10938.304002000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.038418</v>
+        <v>3.0384180000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.790000</v>
+        <v>1128.79</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.527000</v>
+        <v>-364.52699999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>10948.758937</v>
+        <v>10948.758937000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.041322</v>
+        <v>3.0413220000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.405000</v>
+        <v>-576.40499999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>10959.706868</v>
+        <v>10959.706867999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.044363</v>
+        <v>3.0443630000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.190000</v>
+        <v>1408.19</v>
       </c>
       <c r="BV17" s="1">
-        <v>-803.358000</v>
+        <v>-803.35799999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>10970.533542</v>
+        <v>10970.533541999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.047370</v>
+        <v>3.0473699999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1570.930000</v>
+        <v>1570.93</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1039.290000</v>
+        <v>-1039.29</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>10982.929558</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.050814</v>
+        <v>3.0508139999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1984.660000</v>
+        <v>1984.66</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1591.100000</v>
+        <v>-1591.1</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>10810.058942</v>
       </c>
       <c r="B18" s="1">
-        <v>3.002794</v>
+        <v>3.0027940000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>903.004000</v>
+        <v>903.00400000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.500000</v>
+        <v>-195.5</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>10820.413884</v>
@@ -4608,465 +5024,465 @@
         <v>3.005671</v>
       </c>
       <c r="H18" s="1">
-        <v>919.673000</v>
+        <v>919.673</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.141000</v>
+        <v>-166.14099999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>10830.896857</v>
       </c>
       <c r="L18" s="1">
-        <v>3.008582</v>
+        <v>3.0085820000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>941.719000</v>
+        <v>941.71900000000005</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.660000</v>
+        <v>-118.66</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>10841.437314</v>
+        <v>10841.437314000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.011510</v>
+        <v>3.0115099999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>948.242000</v>
+        <v>948.24199999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.332000</v>
+        <v>-103.33199999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>10851.981795</v>
       </c>
       <c r="V18" s="1">
-        <v>3.014439</v>
+        <v>3.0144389999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>954.607000</v>
+        <v>954.60699999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.645000</v>
+        <v>-89.644999999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>10862.678485</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.017411</v>
+        <v>3.0174110000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.705000</v>
+        <v>961.70500000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.202700</v>
+        <v>-80.202699999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>10873.164903</v>
+        <v>10873.164903000001</v>
       </c>
       <c r="AF18" s="1">
         <v>3.020324</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.586000</v>
+        <v>966.58600000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.847300</v>
+        <v>-79.847300000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>10883.688535</v>
+        <v>10883.688534999999</v>
       </c>
       <c r="AK18" s="1">
         <v>3.023247</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.555000</v>
+        <v>974.55499999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.603400</v>
+        <v>-87.603399999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>10894.186348</v>
+        <v>10894.186347999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.026163</v>
+        <v>3.0261629999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.761000</v>
+        <v>983.76099999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.573000</v>
+        <v>-102.57299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>10905.254076</v>
+        <v>10905.254075999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.029237</v>
+        <v>3.0292370000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.123000</v>
+        <v>995.12300000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.140000</v>
+        <v>-124.14</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>10916.235503</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.032288</v>
+        <v>3.0322879999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.750000</v>
+        <v>1004.75</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.892000</v>
+        <v>-142.892</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>10927.321115</v>
+        <v>10927.321115000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.035367</v>
+        <v>3.0353669999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.780000</v>
+        <v>1049.78</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.823000</v>
+        <v>-227.82300000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>10938.695345</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.038526</v>
+        <v>3.0385260000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.820000</v>
+        <v>1128.82</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.519000</v>
+        <v>-364.51900000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>10949.157955</v>
+        <v>10949.157955000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.041433</v>
+        <v>3.0414330000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.080000</v>
+        <v>1260.08</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.395000</v>
+        <v>-576.39499999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>10960.131939</v>
+        <v>10960.131939000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.044481</v>
+        <v>3.0444810000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.130000</v>
+        <v>1408.13</v>
       </c>
       <c r="BV18" s="1">
-        <v>-803.462000</v>
+        <v>-803.46199999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>10970.954645</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.047487</v>
+        <v>3.0474869999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1570.950000</v>
+        <v>1570.95</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1039.280000</v>
+        <v>-1039.28</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>10983.781220</v>
+        <v>10983.781220000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.051050</v>
+        <v>3.05105</v>
       </c>
       <c r="CE18" s="1">
-        <v>1983.900000</v>
+        <v>1983.9</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1592.330000</v>
+        <v>-1592.33</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>10810.399693</v>
+        <v>10810.399692999999</v>
       </c>
       <c r="B19" s="1">
-        <v>3.002889</v>
+        <v>3.0028890000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>902.739000</v>
+        <v>902.73900000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.462000</v>
+        <v>-195.46199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>10820.761581</v>
+        <v>10820.761581000001</v>
       </c>
       <c r="G19" s="1">
-        <v>3.005767</v>
+        <v>3.0057670000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>919.297000</v>
+        <v>919.29700000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.549000</v>
+        <v>-165.54900000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>10831.312514</v>
+        <v>10831.312513999999</v>
       </c>
       <c r="L19" s="1">
-        <v>3.008698</v>
+        <v>3.0086979999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>941.997000</v>
+        <v>941.99699999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.535000</v>
+        <v>-118.535</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>10841.851816</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.011626</v>
+        <v>3.0116260000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.253000</v>
+        <v>948.25300000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.352000</v>
+        <v>-103.352</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>10852.281875</v>
+        <v>10852.281875000001</v>
       </c>
       <c r="V19" s="1">
-        <v>3.014523</v>
+        <v>3.0145230000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>954.550000</v>
+        <v>954.55</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.736900</v>
+        <v>-89.736900000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>10863.024196</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.017507</v>
+        <v>3.0175070000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.823000</v>
+        <v>961.82299999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.169700</v>
+        <v>-80.169700000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>10873.508631</v>
+        <v>10873.508631000001</v>
       </c>
       <c r="AF19" s="1">
         <v>3.020419</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.618000</v>
+        <v>966.61800000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.855400</v>
+        <v>-79.855400000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>10884.037208</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.023344</v>
+        <v>3.0233439999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.566000</v>
+        <v>974.56600000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.609200</v>
+        <v>-87.609200000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>10894.549916</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.026264</v>
+        <v>3.0262639999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.731000</v>
+        <v>983.73099999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.562000</v>
+        <v>-102.562</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>10905.983723</v>
+        <v>10905.983722999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.029440</v>
+        <v>3.0294400000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.118000</v>
+        <v>995.11800000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.124000</v>
+        <v>-124.124</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>10917.051421</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.032514</v>
+        <v>3.0325139999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.889000</v>
+        <v>-142.88900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>10927.681680</v>
+        <v>10927.68168</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.035467</v>
+        <v>3.0354670000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.760000</v>
+        <v>1049.76</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.826000</v>
+        <v>-227.82599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>10939.083711</v>
+        <v>10939.083710999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.038634</v>
+        <v>3.0386340000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.790000</v>
+        <v>1128.79</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.517000</v>
+        <v>-364.517</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>10949.581041</v>
+        <v>10949.581040999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.041550</v>
+        <v>3.04155</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.050000</v>
+        <v>1260.05</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.408000</v>
+        <v>-576.40800000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>10960.857879</v>
+        <v>10960.857878999999</v>
       </c>
       <c r="BT19" s="1">
         <v>3.044683</v>
       </c>
       <c r="BU19" s="1">
-        <v>1407.920000</v>
+        <v>1407.92</v>
       </c>
       <c r="BV19" s="1">
-        <v>-803.371000</v>
+        <v>-803.37099999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>10971.677849</v>
@@ -5075,90 +5491,90 @@
         <v>3.047688</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1570.830000</v>
+        <v>1570.83</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1039.370000</v>
+        <v>-1039.3699999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>10984.009845</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.051114</v>
+        <v>3.0511140000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1984.590000</v>
+        <v>1984.59</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1590.830000</v>
+        <v>-1590.83</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>10810.817817</v>
+        <v>10810.817816999999</v>
       </c>
       <c r="B20" s="1">
-        <v>3.003005</v>
+        <v>3.0030049999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>902.793000</v>
+        <v>902.79300000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.607000</v>
+        <v>-195.607</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>10821.178717</v>
+        <v>10821.178717000001</v>
       </c>
       <c r="G20" s="1">
-        <v>3.005883</v>
+        <v>3.0058829999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>919.904000</v>
+        <v>919.904</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.944000</v>
+        <v>-165.94399999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>10831.608591</v>
       </c>
       <c r="L20" s="1">
-        <v>3.008780</v>
+        <v>3.0087799999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>941.696000</v>
+        <v>941.69600000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.762000</v>
+        <v>-118.762</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>10842.142128</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.011706</v>
+        <v>3.0117060000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>948.281000</v>
+        <v>948.28099999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.349000</v>
+        <v>-103.349</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>10852.626065</v>
@@ -5167,103 +5583,103 @@
         <v>3.014618</v>
       </c>
       <c r="W20" s="1">
-        <v>954.589000</v>
+        <v>954.58900000000006</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.658400</v>
+        <v>-89.6584</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>10863.375363</v>
+        <v>10863.375362999999</v>
       </c>
       <c r="AA20" s="1">
         <v>3.017604</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.749000</v>
+        <v>961.74900000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.254500</v>
+        <v>-80.254499999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>10873.850906</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.020514</v>
+        <v>3.0205139999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.610000</v>
+        <v>966.61</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.843700</v>
+        <v>-79.843699999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>10884.735111</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.023538</v>
+        <v>3.0235379999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.541000</v>
+        <v>974.54100000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.610100</v>
+        <v>-87.610100000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>10895.269609</v>
+        <v>10895.269609000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.026464</v>
+        <v>3.0264639999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.712000</v>
+        <v>983.71199999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.576000</v>
+        <v>-102.57599999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>10906.372090</v>
+        <v>10906.372090000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.029548</v>
+        <v>3.0295480000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.140000</v>
+        <v>995.14</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.127000</v>
+        <v>-124.127</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>10917.409069</v>
+        <v>10917.409068999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.032614</v>
+        <v>3.0326140000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.740000</v>
+        <v>1004.74</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.860000</v>
+        <v>-142.86000000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>10928.044097</v>
@@ -5272,135 +5688,135 @@
         <v>3.035568</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.790000</v>
+        <v>1049.79</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.833000</v>
+        <v>-227.833</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>10939.758308</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.038822</v>
+        <v>3.0388220000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.820000</v>
+        <v>1128.82</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.578000</v>
+        <v>-364.57799999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>10950.296770</v>
+        <v>10950.296770000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.041749</v>
+        <v>3.0417489999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.000000</v>
+        <v>1260</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.350000</v>
+        <v>-576.35</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>10960.977122</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.044716</v>
+        <v>3.0447160000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1407.750000</v>
+        <v>1407.75</v>
       </c>
       <c r="BV20" s="1">
-        <v>-803.246000</v>
+        <v>-803.24599999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>10971.801349</v>
+        <v>10971.801348999999</v>
       </c>
       <c r="BY20" s="1">
         <v>3.047723</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1570.910000</v>
+        <v>1570.91</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1039.270000</v>
+        <v>-1039.27</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>10984.530149</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.051258</v>
+        <v>3.0512579999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1982.410000</v>
+        <v>1982.41</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1590.170000</v>
+        <v>-1590.17</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>10811.100504</v>
       </c>
       <c r="B21" s="1">
-        <v>3.003083</v>
+        <v>3.0030830000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>902.944000</v>
+        <v>902.94399999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.614000</v>
+        <v>-195.614</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>10821.459451</v>
+        <v>10821.459451000001</v>
       </c>
       <c r="G21" s="1">
-        <v>3.005961</v>
+        <v>3.0059610000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>919.758000</v>
+        <v>919.75800000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.685000</v>
+        <v>-165.685</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>10831.954831</v>
+        <v>10831.954830999999</v>
       </c>
       <c r="L21" s="1">
-        <v>3.008876</v>
+        <v>3.0088759999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>941.769000</v>
+        <v>941.76900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.639000</v>
+        <v>-118.639</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>10842.491807</v>
@@ -5409,73 +5825,73 @@
         <v>3.011803</v>
       </c>
       <c r="R21" s="1">
-        <v>948.300000</v>
+        <v>948.3</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.350000</v>
+        <v>-103.35</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>10852.970322</v>
+        <v>10852.970321999999</v>
       </c>
       <c r="V21" s="1">
-        <v>3.014714</v>
+        <v>3.0147140000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>954.657000</v>
+        <v>954.65700000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.666900</v>
+        <v>-89.666899999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>10864.070258</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.017797</v>
+        <v>3.0177969999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.748000</v>
+        <v>961.74800000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.253900</v>
+        <v>-80.253900000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>10874.539317</v>
+        <v>10874.539317000001</v>
       </c>
       <c r="AF21" s="1">
         <v>3.020705</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.632000</v>
+        <v>966.63199999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.837000</v>
+        <v>-79.837000000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>10885.083767</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.023634</v>
+        <v>3.0236339999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.532000</v>
+        <v>974.53200000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.599500</v>
+        <v>-87.599500000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>10895.630329</v>
@@ -5484,195 +5900,195 @@
         <v>3.026564</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.734000</v>
+        <v>983.73400000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.601000</v>
+        <v>-102.601</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>10906.736619</v>
+        <v>10906.736618999999</v>
       </c>
       <c r="AU21" s="1">
         <v>3.029649</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.135000</v>
+        <v>995.13499999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.121000</v>
+        <v>-124.121</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>10918.071231</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.032798</v>
+        <v>3.0327980000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.740000</v>
+        <v>1004.74</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.870000</v>
+        <v>-142.87</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>10928.705917</v>
+        <v>10928.705916999999</v>
       </c>
       <c r="BE21" s="1">
         <v>3.035752</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.750000</v>
+        <v>1049.75</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.820000</v>
+        <v>-227.82</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>10940.241869</v>
+        <v>10940.241868999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.038956</v>
+        <v>3.0389560000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1128.810000</v>
+        <v>1128.81</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.516000</v>
+        <v>-364.51600000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>10950.410352</v>
+        <v>10950.410352000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.041781</v>
+        <v>3.0417809999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.040000</v>
+        <v>1260.04</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.411000</v>
+        <v>-576.41099999999994</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>10961.413106</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.044837</v>
+        <v>3.0448369999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1407.620000</v>
+        <v>1407.62</v>
       </c>
       <c r="BV21" s="1">
-        <v>-803.195000</v>
+        <v>-803.19500000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>10972.248213</v>
+        <v>10972.248213000001</v>
       </c>
       <c r="BY21" s="1">
         <v>3.047847</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1570.870000</v>
+        <v>1570.87</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1039.400000</v>
+        <v>-1039.4000000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>10985.069330</v>
+        <v>10985.06933</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.051408</v>
+        <v>3.0514079999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1983.940000</v>
+        <v>1983.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1591.610000</v>
+        <v>-1591.61</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>10811.443738</v>
       </c>
       <c r="B22" s="1">
-        <v>3.003179</v>
+        <v>3.0031789999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>902.828000</v>
+        <v>902.82799999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.654000</v>
+        <v>-195.654</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>10821.805162</v>
+        <v>10821.805162000001</v>
       </c>
       <c r="G22" s="1">
-        <v>3.006057</v>
+        <v>3.0060570000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>919.815000</v>
+        <v>919.81500000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.964000</v>
+        <v>-165.964</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>10832.301999</v>
+        <v>10832.301998999999</v>
       </c>
       <c r="L22" s="1">
-        <v>3.008973</v>
+        <v>3.0089730000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>941.858000</v>
+        <v>941.85799999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.749000</v>
+        <v>-118.749</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>10842.941184</v>
+        <v>10842.941183999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.011928</v>
+        <v>3.0119280000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>948.233000</v>
+        <v>948.23299999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.388000</v>
+        <v>-103.38800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>10853.655792</v>
@@ -5681,178 +6097,178 @@
         <v>3.014904</v>
       </c>
       <c r="W22" s="1">
-        <v>954.642000</v>
+        <v>954.64200000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.667400</v>
+        <v>-89.667400000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>10864.419442</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.017894</v>
+        <v>3.0178940000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.800000</v>
+        <v>961.8</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.254800</v>
+        <v>-80.254800000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>10874.884037</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.020801</v>
+        <v>3.0208010000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.607000</v>
+        <v>966.60699999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.839100</v>
+        <v>-79.839100000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>10885.429974</v>
+        <v>10885.429974000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.023731</v>
+        <v>3.0237310000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.538000</v>
+        <v>974.53800000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.618500</v>
+        <v>-87.618499999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>10895.990296</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.026664</v>
+        <v>3.0266639999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.734000</v>
+        <v>983.73400000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.589000</v>
+        <v>-102.589</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>10907.404729</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.029835</v>
+        <v>3.0298349999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.107000</v>
+        <v>995.10699999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.109000</v>
+        <v>-124.10899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>10918.521595</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.032923</v>
+        <v>3.0329229999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.866000</v>
+        <v>-142.86600000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>10929.162733</v>
+        <v>10929.162732999999</v>
       </c>
       <c r="BE22" s="1">
         <v>3.035879</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.760000</v>
+        <v>1049.76</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.836000</v>
+        <v>-227.83600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>10940.617837</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.039061</v>
+        <v>3.0390609999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.790000</v>
+        <v>1128.79</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.535000</v>
+        <v>-364.53500000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>10950.819584</v>
+        <v>10950.819584000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.041894</v>
+        <v>3.0418940000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.050000</v>
+        <v>1260.05</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.386000</v>
+        <v>-576.38599999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>10961.846113</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.044957</v>
+        <v>3.0449570000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1407.690000</v>
+        <v>1407.69</v>
       </c>
       <c r="BV22" s="1">
-        <v>-802.962000</v>
+        <v>-802.96199999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>10972.678743</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.047966</v>
+        <v>3.0479660000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1570.940000</v>
+        <v>1570.94</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1039.400000</v>
+        <v>-1039.4000000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>10985.610466</v>
@@ -5861,150 +6277,150 @@
         <v>3.051558</v>
       </c>
       <c r="CE22" s="1">
-        <v>1984.100000</v>
+        <v>1984.1</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1589.750000</v>
+        <v>-1589.75</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>10811.783527</v>
       </c>
       <c r="B23" s="1">
-        <v>3.003273</v>
+        <v>3.0032730000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>902.822000</v>
+        <v>902.822</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.571000</v>
+        <v>-195.571</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>10822.146906</v>
       </c>
       <c r="G23" s="1">
-        <v>3.006152</v>
+        <v>3.0061520000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>919.844000</v>
+        <v>919.84400000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.164000</v>
+        <v>-165.16399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>10832.996891</v>
+        <v>10832.996891000001</v>
       </c>
       <c r="L23" s="1">
         <v>3.009166</v>
       </c>
       <c r="M23" s="1">
-        <v>941.786000</v>
+        <v>941.78599999999994</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.732000</v>
+        <v>-118.732</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>10843.535886</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.012093</v>
+        <v>3.0120930000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>948.237000</v>
+        <v>948.23699999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.374000</v>
+        <v>-103.374</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>10854.002961</v>
       </c>
       <c r="V23" s="1">
-        <v>3.015001</v>
+        <v>3.0150009999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>954.505000</v>
+        <v>954.505</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.716800</v>
+        <v>-89.716800000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>10864.769122</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.017991</v>
+        <v>3.0179909999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.686000</v>
+        <v>961.68600000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.217700</v>
+        <v>-80.217699999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>10875.227764</v>
+        <v>10875.227763999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.020897</v>
+        <v>3.0208970000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.613000</v>
+        <v>966.61300000000006</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.887000</v>
+        <v>-79.887</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>10886.087671</v>
+        <v>10886.087670999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.023913</v>
+        <v>3.0239129999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.552000</v>
+        <v>974.55200000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.599400</v>
+        <v>-87.599400000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>10896.662872</v>
+        <v>10896.662872000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.026851</v>
+        <v>3.0268510000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.747000</v>
+        <v>983.74699999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.541000</v>
+        <v>-102.541</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>10907.868488</v>
@@ -6013,13 +6429,13 @@
         <v>3.029963</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.121000</v>
+        <v>995.12099999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.135000</v>
+        <v>-124.13500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>10918.881195</v>
@@ -6028,106 +6444,106 @@
         <v>3.033023</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.740000</v>
+        <v>1004.74</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.860000</v>
+        <v>-142.86000000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>10929.522828</v>
+        <v>10929.522827999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.035979</v>
+        <v>3.0359790000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.780000</v>
+        <v>1049.78</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.854000</v>
+        <v>-227.85400000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>10941.021085</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.039173</v>
+        <v>3.0391729999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1128.810000</v>
+        <v>1128.81</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.541000</v>
+        <v>-364.541</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>10951.217872</v>
+        <v>10951.217871999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.042005</v>
+        <v>3.0420050000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.428000</v>
+        <v>-576.428</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>10962.268705</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.045075</v>
+        <v>3.0450750000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1407.660000</v>
+        <v>1407.66</v>
       </c>
       <c r="BV23" s="1">
-        <v>-802.768000</v>
+        <v>-802.76800000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>10973.114724</v>
+        <v>10973.114723999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.048087</v>
+        <v>3.0480870000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1570.800000</v>
+        <v>1570.8</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1039.430000</v>
+        <v>-1039.43</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>10986.149587</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.051708</v>
+        <v>3.0517080000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1982.760000</v>
+        <v>1982.76</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1591.010000</v>
+        <v>-1591.01</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>10812.468471</v>
       </c>
@@ -6135,178 +6551,178 @@
         <v>3.003463</v>
       </c>
       <c r="C24" s="1">
-        <v>902.844000</v>
+        <v>902.84400000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.636000</v>
+        <v>-195.636</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>10822.836847</v>
       </c>
       <c r="G24" s="1">
-        <v>3.006344</v>
+        <v>3.0063439999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>919.415000</v>
+        <v>919.41499999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.599000</v>
+        <v>-165.59899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>10833.341611</v>
       </c>
       <c r="L24" s="1">
-        <v>3.009262</v>
+        <v>3.0092620000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>941.941000</v>
+        <v>941.94100000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.711000</v>
+        <v>-118.711</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>10843.883618</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.012190</v>
+        <v>3.0121899999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>948.226000</v>
+        <v>948.226</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.352000</v>
+        <v>-103.352</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>10854.345201</v>
       </c>
       <c r="V24" s="1">
-        <v>3.015096</v>
+        <v>3.0150960000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>954.613000</v>
+        <v>954.61300000000006</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.654100</v>
+        <v>-89.6541</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>10865.418385</v>
+        <v>10865.418385000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.018172</v>
+        <v>3.0181719999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.704000</v>
+        <v>961.70399999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.280500</v>
+        <v>-80.280500000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>10875.873090</v>
+        <v>10875.873089999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.021076</v>
+        <v>3.0210759999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.611000</v>
+        <v>966.61099999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.850800</v>
+        <v>-79.850800000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>10886.478053</v>
+        <v>10886.478053000001</v>
       </c>
       <c r="AK24" s="1">
         <v>3.024022</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.530000</v>
+        <v>974.53</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.611800</v>
+        <v>-87.611800000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>10897.100839</v>
+        <v>10897.100839000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.026972</v>
+        <v>3.0269720000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.753000</v>
+        <v>983.75300000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.561000</v>
+        <v>-102.56100000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>10908.231064</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.030064</v>
+        <v>3.0300639999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.112000</v>
+        <v>995.11199999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.131000</v>
+        <v>-124.131</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>10919.237289</v>
+        <v>10919.237289000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>3.033121</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.740000</v>
+        <v>1004.74</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.871000</v>
+        <v>-142.87100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>10929.881965</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.036078</v>
+        <v>3.0360779999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.770000</v>
+        <v>1049.77</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.808000</v>
+        <v>-227.80799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>10941.436732</v>
@@ -6315,120 +6731,120 @@
         <v>3.039288</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.780000</v>
+        <v>1128.78</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.520000</v>
+        <v>-364.52</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>10951.639477</v>
+        <v>10951.639477000001</v>
       </c>
       <c r="BO24" s="1">
         <v>3.042122</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.000000</v>
+        <v>1260</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.419000</v>
+        <v>-576.41899999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>10962.684353</v>
+        <v>10962.684353000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.045190</v>
+        <v>3.0451899999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1407.870000</v>
+        <v>1407.87</v>
       </c>
       <c r="BV24" s="1">
-        <v>-802.626000</v>
+        <v>-802.62599999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>10973.521441</v>
+        <v>10973.521441000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.048200</v>
+        <v>3.0482</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1570.890000</v>
+        <v>1570.89</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1039.460000</v>
+        <v>-1039.46</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>10986.691216</v>
+        <v>10986.691215999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.051859</v>
+        <v>3.0518589999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1984.890000</v>
+        <v>1984.89</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1591.500000</v>
+        <v>-1591.5</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>10812.813190</v>
+        <v>10812.813190000001</v>
       </c>
       <c r="B25" s="1">
-        <v>3.003559</v>
+        <v>3.0035590000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.834000</v>
+        <v>902.83399999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.466000</v>
+        <v>-195.46600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>10823.180107</v>
       </c>
       <c r="G25" s="1">
-        <v>3.006439</v>
+        <v>3.0064389999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>919.737000</v>
+        <v>919.73699999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.489000</v>
+        <v>-165.489</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>10833.685937</v>
       </c>
       <c r="L25" s="1">
-        <v>3.009357</v>
+        <v>3.0093570000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>941.805000</v>
+        <v>941.80499999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.520000</v>
+        <v>-118.52</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>10844.549212</v>
@@ -6437,43 +6853,43 @@
         <v>3.012375</v>
       </c>
       <c r="R25" s="1">
-        <v>948.277000</v>
+        <v>948.27700000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.359000</v>
+        <v>-103.35899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>10855.002400</v>
+        <v>10855.002399999999</v>
       </c>
       <c r="V25" s="1">
-        <v>3.015278</v>
+        <v>3.0152779999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>954.745000</v>
+        <v>954.745</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.857900</v>
+        <v>-89.857900000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>10865.814192</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.018282</v>
+        <v>3.0182820000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.680000</v>
+        <v>961.68</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.227500</v>
+        <v>-80.227500000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>10876.256995</v>
@@ -6482,28 +6898,28 @@
         <v>3.021182</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.619000</v>
+        <v>966.61900000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.844400</v>
+        <v>-79.844399999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>10886.829221</v>
       </c>
       <c r="AK25" s="1">
-        <v>3.024119</v>
+        <v>3.0241189999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.574000</v>
+        <v>974.57399999999996</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.611900</v>
+        <v>-87.611900000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>10897.459942</v>
@@ -6512,88 +6928,88 @@
         <v>3.027072</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.731000</v>
+        <v>983.73099999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.592000</v>
+        <v>-102.592</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>10908.595128</v>
+        <v>10908.595128000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.030165</v>
+        <v>3.0301650000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.093000</v>
+        <v>995.09299999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.137000</v>
+        <v>-124.137</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>10919.656941</v>
+        <v>10919.656940999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.033238</v>
+        <v>3.0332379999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.750000</v>
+        <v>1004.75</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.879000</v>
+        <v>-142.87899999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>10930.301051</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.036195</v>
+        <v>3.0361950000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.760000</v>
+        <v>1049.76</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.845000</v>
+        <v>-227.845</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>10941.773051</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.039381</v>
+        <v>3.0393810000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.800000</v>
+        <v>1128.8</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.538000</v>
+        <v>-364.53800000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>10952.037764</v>
+        <v>10952.037764000001</v>
       </c>
       <c r="BO25" s="1">
         <v>3.042233</v>
       </c>
       <c r="BP25" s="1">
-        <v>1259.990000</v>
+        <v>1259.99</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.435000</v>
+        <v>-576.43499999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>10963.112401</v>
@@ -6602,255 +7018,255 @@
         <v>3.045309</v>
       </c>
       <c r="BU25" s="1">
-        <v>1407.970000</v>
+        <v>1407.97</v>
       </c>
       <c r="BV25" s="1">
-        <v>-802.631000</v>
+        <v>-802.63099999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>10973.947011</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.048319</v>
+        <v>3.0483189999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1570.830000</v>
+        <v>1570.83</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1039.540000</v>
+        <v>-1039.54</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>10987.230400</v>
+        <v>10987.2304</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.052008</v>
+        <v>3.0520079999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1983.080000</v>
+        <v>1983.08</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1590.050000</v>
+        <v>-1590.05</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>10813.152485</v>
+        <v>10813.152485000001</v>
       </c>
       <c r="B26" s="1">
-        <v>3.003653</v>
+        <v>3.0036529999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>902.788000</v>
+        <v>902.78800000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.651000</v>
+        <v>-195.65100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>10823.525320</v>
+        <v>10823.525320000001</v>
       </c>
       <c r="G26" s="1">
         <v>3.006535</v>
       </c>
       <c r="H26" s="1">
-        <v>919.930000</v>
+        <v>919.93</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.699000</v>
+        <v>-165.69900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>10834.345050</v>
+        <v>10834.34505</v>
       </c>
       <c r="L26" s="1">
-        <v>3.009540</v>
+        <v>3.0095399999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>941.723000</v>
+        <v>941.72299999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.738000</v>
+        <v>-118.738</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>10844.930140</v>
+        <v>10844.93014</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.012481</v>
+        <v>3.0124810000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>948.296000</v>
+        <v>948.29600000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.372000</v>
+        <v>-103.372</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>10855.248942</v>
       </c>
       <c r="V26" s="1">
-        <v>3.015347</v>
+        <v>3.0153470000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>954.652000</v>
+        <v>954.65200000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.666600</v>
+        <v>-89.666600000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>10866.162880</v>
+        <v>10866.16288</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.018379</v>
+        <v>3.0183789999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.641000</v>
+        <v>961.64099999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.234700</v>
+        <v>-80.234700000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>10876.601682</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.021278</v>
+        <v>3.0212780000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.622000</v>
+        <v>966.62199999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.865900</v>
+        <v>-79.865899999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>10887.174437</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.024215</v>
+        <v>3.0242149999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.529000</v>
+        <v>974.529</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.609800</v>
+        <v>-87.609800000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>10897.820534</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.027172</v>
+        <v>3.0271720000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.742000</v>
+        <v>983.74199999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.570000</v>
+        <v>-102.57</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>10909.016759</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.030282</v>
+        <v>3.0302820000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.112000</v>
+        <v>995.11199999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.129000</v>
+        <v>-124.129</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>10919.957481</v>
+        <v>10919.957480999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.033322</v>
+        <v>3.0333220000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.877000</v>
+        <v>-142.87700000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>10930.606587</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.036280</v>
+        <v>3.0362800000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.760000</v>
+        <v>1049.76</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.821000</v>
+        <v>-227.821</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>10942.148526</v>
+        <v>10942.148526000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.039486</v>
+        <v>3.0394860000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.760000</v>
+        <v>1128.76</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.528000</v>
+        <v>-364.52800000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>10952.459325</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.042350</v>
+        <v>3.0423499999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.050000</v>
+        <v>1260.05</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.425000</v>
+        <v>-576.42499999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>10963.524292</v>
@@ -6859,45 +7275,46 @@
         <v>3.045423</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.180000</v>
+        <v>1408.18</v>
       </c>
       <c r="BV26" s="1">
-        <v>-802.660000</v>
+        <v>-802.66</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>10974.368113</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.048436</v>
+        <v>3.0484360000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1570.960000</v>
+        <v>1570.96</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1039.210000</v>
+        <v>-1039.21</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>10987.768559</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.052158</v>
+        <v>3.0521579999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1983.660000</v>
+        <v>1983.66</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1591.810000</v>
+        <v>-1591.81</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>